--- a/document/Architecture overview.xlsx
+++ b/document/Architecture overview.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5BB09A8B-E7A6-4E28-AA95-833FEF92DA42}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0340AADF-D037-47E4-8131-13440DEFD717}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Request</t>
   </si>
@@ -65,6 +65,24 @@
 - Add router module
 - Add layout module
 - Setting structure css (use scss)</t>
+  </si>
+  <si>
+    <t>Create authentication module</t>
+  </si>
+  <si>
+    <t>Create Httpservice base for all service call API</t>
+  </si>
+  <si>
+    <t>Create handle authentication, refresh token</t>
+  </si>
+  <si>
+    <t>Create handle http error response</t>
+  </si>
+  <si>
+    <t>Create feature Internationalization (i18n)</t>
+  </si>
+  <si>
+    <t>Create Util common: DateUtil, StringUtil, CollectionUtil…</t>
   </si>
 </sst>
 </file>
@@ -2117,7 +2135,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2950DCA2-8555-40FA-BD6B-F99A2A0764D6}" name="Table14" displayName="Table14" ref="A1:D19" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{38AC9449-27A0-4C51-A7F1-83B138DA07B5}" name="NO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{38AC9449-27A0-4C51-A7F1-83B138DA07B5}" name="NO" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{3ED76D8E-325B-49D3-8289-5F32EFD3480E}" name="Date"/>
     <tableColumn id="3" xr3:uid="{94853A7B-B2F4-40EF-9F4A-AB86F15D4768}" name="PIC"/>
     <tableColumn id="4" xr3:uid="{AE21F1AC-D2BF-4F93-A46C-BE5B23B552A4}" name="Description"/>
@@ -2129,7 +2147,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A89A30D8-727D-4DC9-A573-28D0C012ED5F}" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9A12E9FA-96C4-4B76-A1BA-D86AF9D8B9DD}" name="NO" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9A12E9FA-96C4-4B76-A1BA-D86AF9D8B9DD}" name="NO" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{06957A96-83D8-4570-BCF5-AE99164C4F17}" name="Title"/>
     <tableColumn id="3" xr3:uid="{80905AB9-A19E-4809-A222-6F06DED3DBFD}" name="Decription"/>
     <tableColumn id="5" xr3:uid="{0E80992E-B90F-4C12-8E3D-A72717EE7FA4}" name="PIC"/>
@@ -2405,7 +2423,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D31" sqref="D30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,7 +2532,7 @@
   <dimension ref="N6:AS17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,7 +2565,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,34 +2612,63 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
